--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0875C0-E3AE-D541-BA3C-6702769286D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0A681-8FFF-9645-A815-599E7C1F062F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA0A681-8FFF-9645-A815-599E7C1F062F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAFAFB-3B04-CA46-9F25-A5D3FF84058B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -78,23 +78,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -125,9 +121,6 @@
           <cell r="A1" t="str">
             <v>Date</v>
           </cell>
-          <cell r="B1" t="str">
-            <v>Hour</v>
-          </cell>
           <cell r="D1" t="str">
             <v>Topics</v>
           </cell>
@@ -135,9 +128,6 @@
         <row r="2">
           <cell r="A2">
             <v>44971</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>9</v>
           </cell>
           <cell r="D2" t="str">
             <v xml:space="preserve">General description of the course, assessment method. 
@@ -149,9 +139,6 @@
           <cell r="A3">
             <v>44972</v>
           </cell>
-          <cell r="B3" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D3" t="str">
             <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
           </cell>
@@ -160,9 +147,6 @@
           <cell r="A4">
             <v>44973</v>
           </cell>
-          <cell r="B4" t="str">
-            <v>14</v>
-          </cell>
           <cell r="D4" t="str">
             <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. </v>
@@ -172,9 +156,6 @@
           <cell r="A5">
             <v>44978</v>
           </cell>
-          <cell r="B5" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D5" t="str">
             <v>Examples of expressions</v>
           </cell>
@@ -183,9 +164,6 @@
           <cell r="A6">
             <v>44979</v>
           </cell>
-          <cell r="B6" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D6" t="str">
             <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. </v>
           </cell>
@@ -194,9 +172,6 @@
           <cell r="A7">
             <v>44981</v>
           </cell>
-          <cell r="B7" t="str">
-            <v>14</v>
-          </cell>
           <cell r="D7" t="str">
             <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
           </cell>
@@ -204,9 +179,6 @@
         <row r="8">
           <cell r="A8">
             <v>44985</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>9</v>
           </cell>
           <cell r="D8" t="str">
             <v xml:space="preserve">Memories. Input/output devices. CPU types.
@@ -218,9 +190,6 @@
           <cell r="A9">
             <v>44986</v>
           </cell>
-          <cell r="B9" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D9" t="str">
             <v>Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Coding repetitions in R. For and while constructs. Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
           </cell>
@@ -229,9 +198,6 @@
           <cell r="A10">
             <v>44988</v>
           </cell>
-          <cell r="B10" t="str">
-            <v>14</v>
-          </cell>
           <cell r="D10" t="str">
             <v>Examples of loops in R. Nesting multiple loops</v>
           </cell>
@@ -240,9 +206,6 @@
           <cell r="A11">
             <v>44992</v>
           </cell>
-          <cell r="B11" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D11" t="str">
             <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
           </cell>
@@ -251,9 +214,6 @@
           <cell r="A12">
             <v>44993</v>
           </cell>
-          <cell r="B12" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D12" t="str">
             <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
           </cell>
@@ -262,9 +222,6 @@
           <cell r="A13">
             <v>44995</v>
           </cell>
-          <cell r="B13" t="str">
-            <v>14</v>
-          </cell>
           <cell r="D13" t="str">
             <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. </v>
           </cell>
@@ -273,9 +230,6 @@
           <cell r="A14">
             <v>44999</v>
           </cell>
-          <cell r="B14" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D14" t="str">
             <v xml:space="preserve">Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
           </cell>
@@ -284,9 +238,6 @@
           <cell r="A15">
             <v>45000</v>
           </cell>
-          <cell r="B15" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D15" t="str">
             <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
           </cell>
@@ -295,9 +246,6 @@
           <cell r="A16">
             <v>45002</v>
           </cell>
-          <cell r="B16" t="str">
-            <v>14</v>
-          </cell>
           <cell r="D16" t="str">
             <v>Accessing and reshaping a data frame.</v>
           </cell>
@@ -306,9 +254,6 @@
           <cell r="A17">
             <v>45034</v>
           </cell>
-          <cell r="B17" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D17" t="str">
             <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
@@ -318,9 +263,6 @@
           <cell r="A18">
             <v>45036</v>
           </cell>
-          <cell r="B18" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D18" t="str">
             <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
           </cell>
@@ -329,9 +271,6 @@
           <cell r="A19">
             <v>45037</v>
           </cell>
-          <cell r="B19" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D19" t="str">
             <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
           </cell>
@@ -340,9 +279,6 @@
           <cell r="A20">
             <v>45043</v>
           </cell>
-          <cell r="B20" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D20" t="str">
             <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
           </cell>
@@ -351,9 +287,6 @@
           <cell r="A21">
             <v>45044</v>
           </cell>
-          <cell r="B21" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D21" t="str">
             <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
           </cell>
@@ -362,9 +295,6 @@
           <cell r="A22">
             <v>45048</v>
           </cell>
-          <cell r="B22" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D22" t="str">
             <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
           </cell>
@@ -373,9 +303,6 @@
           <cell r="A23">
             <v>45050</v>
           </cell>
-          <cell r="B23" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D23" t="str">
             <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
           </cell>
@@ -384,9 +311,6 @@
           <cell r="A24">
             <v>45051</v>
           </cell>
-          <cell r="B24" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D24" t="str">
             <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
           </cell>
@@ -395,9 +319,6 @@
           <cell r="A25">
             <v>45055</v>
           </cell>
-          <cell r="B25" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D25" t="str">
             <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
           </cell>
@@ -406,9 +327,6 @@
           <cell r="A26">
             <v>45057</v>
           </cell>
-          <cell r="B26" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D26" t="str">
             <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
           </cell>
@@ -417,9 +335,6 @@
           <cell r="A27">
             <v>45058</v>
           </cell>
-          <cell r="B27" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D27" t="str">
             <v>String manipulation with R. Regular expressions for string manipulation</v>
           </cell>
@@ -428,9 +343,6 @@
           <cell r="A28">
             <v>45062</v>
           </cell>
-          <cell r="B28" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D28" t="str">
             <v>Examples of string manipulation with R. Example of text analysis</v>
           </cell>
@@ -439,9 +351,6 @@
           <cell r="A29">
             <v>45064</v>
           </cell>
-          <cell r="B29" t="str">
-            <v>11</v>
-          </cell>
           <cell r="D29" t="str">
             <v>Date values https://www.statmethods.net/input/dates.html</v>
           </cell>
@@ -450,9 +359,6 @@
           <cell r="A30">
             <v>45065</v>
           </cell>
-          <cell r="B30" t="str">
-            <v>9</v>
-          </cell>
           <cell r="D30" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
           </cell>
@@ -460,9 +366,6 @@
         <row r="31">
           <cell r="A31">
             <v>45069</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>9</v>
           </cell>
           <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
@@ -771,455 +674,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="130.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="str">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="str">
         <f>[1]Foglio1!A1</f>
         <v>Date</v>
       </c>
-      <c r="B1" s="3" t="str">
-        <f>[1]Foglio1!B1</f>
-        <v>Hour</v>
-      </c>
-      <c r="C1" s="5" t="str">
+      <c r="B1" s="1" t="str">
         <f>[1]Foglio1!D1</f>
         <v>Topics</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <f>[1]Foglio1!A2</f>
         <v>44971</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>[1]Foglio1!B2</f>
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="str">
         <f>[1]Foglio1!D2</f>
         <v xml:space="preserve">General description of the course, assessment method. 
 Defining IT, a short history.
 HCI, the desktop metaphor. Networking: lan, wan, network types, dns, url. </v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <f>[1]Foglio1!A3</f>
         <v>44972</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>[1]Foglio1!B3</f>
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="str">
         <f>[1]Foglio1!D3</f>
         <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <f>[1]Foglio1!A4</f>
         <v>44973</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>[1]Foglio1!B4</f>
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="str">
         <f>[1]Foglio1!D4</f>
         <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. </v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <f>[1]Foglio1!A5</f>
         <v>44978</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>[1]Foglio1!B5</f>
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="str">
         <f>[1]Foglio1!D5</f>
         <v>Examples of expressions</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <f>[1]Foglio1!A6</f>
         <v>44979</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>[1]Foglio1!B6</f>
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="str">
         <f>[1]Foglio1!D6</f>
         <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. </v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <f>[1]Foglio1!A7</f>
         <v>44981</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>[1]Foglio1!B7</f>
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="str">
         <f>[1]Foglio1!D7</f>
         <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <f>[1]Foglio1!A8</f>
         <v>44985</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>[1]Foglio1!B8</f>
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="str">
         <f>[1]Foglio1!D8</f>
         <v xml:space="preserve">Memories. Input/output devices. CPU types.
 Operating system. Bootstrap process. Multitasking. 
 Logical operators and De Morgan laws. Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <f>[1]Foglio1!A9</f>
         <v>44986</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>[1]Foglio1!B9</f>
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="str">
         <f>[1]Foglio1!D9</f>
         <v>Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Coding repetitions in R. For and while constructs. Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <f>[1]Foglio1!A10</f>
         <v>44988</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>[1]Foglio1!B10</f>
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="str">
         <f>[1]Foglio1!D10</f>
         <v>Examples of loops in R. Nesting multiple loops</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <f>[1]Foglio1!A11</f>
         <v>44992</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>[1]Foglio1!B11</f>
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="str">
         <f>[1]Foglio1!D11</f>
         <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <f>[1]Foglio1!A12</f>
         <v>44993</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>[1]Foglio1!B12</f>
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="str">
         <f>[1]Foglio1!D12</f>
         <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <f>[1]Foglio1!A13</f>
         <v>44995</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>[1]Foglio1!B13</f>
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="str">
         <f>[1]Foglio1!D13</f>
         <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. </v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <f>[1]Foglio1!A14</f>
         <v>44999</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>[1]Foglio1!B14</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="str">
         <f>[1]Foglio1!D14</f>
         <v xml:space="preserve">Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <f>[1]Foglio1!A15</f>
         <v>45000</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>[1]Foglio1!B15</f>
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="str">
         <f>[1]Foglio1!D15</f>
         <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <f>[1]Foglio1!A16</f>
         <v>45002</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>[1]Foglio1!B16</f>
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="str">
         <f>[1]Foglio1!D16</f>
         <v>Accessing and reshaping a data frame.</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <f>[1]Foglio1!A17</f>
         <v>45034</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>[1]Foglio1!B17</f>
-        <v>9</v>
-      </c>
-      <c r="C17" s="6" t="str">
         <f>[1]Foglio1!D17</f>
         <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <f>[1]Foglio1!A18</f>
         <v>45036</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>[1]Foglio1!B18</f>
-        <v>11</v>
-      </c>
-      <c r="C18" s="6" t="str">
         <f>[1]Foglio1!D18</f>
         <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <f>[1]Foglio1!A19</f>
         <v>45037</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>[1]Foglio1!B19</f>
-        <v>9</v>
-      </c>
-      <c r="C19" s="6" t="str">
         <f>[1]Foglio1!D19</f>
         <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <f>[1]Foglio1!A20</f>
         <v>45043</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>[1]Foglio1!B20</f>
-        <v>9</v>
-      </c>
-      <c r="C20" s="6" t="str">
         <f>[1]Foglio1!D20</f>
         <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
         <v>45044</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>[1]Foglio1!B21</f>
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="str">
         <f>[1]Foglio1!D21</f>
         <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
         <v>45048</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>[1]Foglio1!B22</f>
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="str">
         <f>[1]Foglio1!D22</f>
         <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
         <v>45050</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>[1]Foglio1!B23</f>
-        <v>11</v>
-      </c>
-      <c r="C23" s="6" t="str">
         <f>[1]Foglio1!D23</f>
         <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <f>[1]Foglio1!A24</f>
         <v>45051</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>[1]Foglio1!B24</f>
-        <v>9</v>
-      </c>
-      <c r="C24" s="6" t="str">
         <f>[1]Foglio1!D24</f>
         <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
         <v>45055</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>[1]Foglio1!B25</f>
-        <v>9</v>
-      </c>
-      <c r="C25" s="6" t="str">
         <f>[1]Foglio1!D25</f>
         <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
         <v>45057</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>[1]Foglio1!B26</f>
-        <v>11</v>
-      </c>
-      <c r="C26" s="6" t="str">
         <f>[1]Foglio1!D26</f>
         <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
         <v>45058</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>[1]Foglio1!B27</f>
-        <v>9</v>
-      </c>
-      <c r="C27" s="6" t="str">
         <f>[1]Foglio1!D27</f>
         <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
         <v>45062</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>[1]Foglio1!B28</f>
-        <v>9</v>
-      </c>
-      <c r="C28" s="6" t="str">
         <f>[1]Foglio1!D28</f>
         <v>Examples of string manipulation with R. Example of text analysis</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
         <v>45064</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>[1]Foglio1!B29</f>
-        <v>11</v>
-      </c>
-      <c r="C29" s="6" t="str">
         <f>[1]Foglio1!D29</f>
         <v>Date values https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
         <v>45065</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>[1]Foglio1!B30</f>
-        <v>9</v>
-      </c>
-      <c r="C30" s="6" t="str">
         <f>[1]Foglio1!D30</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
         <v>45069</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f>[1]Foglio1!B31</f>
-        <v>9</v>
-      </c>
-      <c r="C31" s="6" t="str">
         <f>[1]Foglio1!D31</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECAFAFB-3B04-CA46-9F25-A5D3FF84058B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677E3E2-A3F6-0E47-BAB3-7F91F16A7B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,11 +145,12 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44973</v>
+            <v>44974</v>
           </cell>
           <cell r="D4" t="str">
-            <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
-R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. </v>
+            <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
+R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
+Logical operators and De Morgan laws.</v>
           </cell>
         </row>
         <row r="5">
@@ -157,7 +158,9 @@
             <v>44978</v>
           </cell>
           <cell r="D5" t="str">
-            <v>Examples of expressions</v>
+            <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
+Memories. Input/output devices. CPU types.
+Operating system. Bootstrap process. Multitasking. </v>
           </cell>
         </row>
         <row r="6">
@@ -165,7 +168,7 @@
             <v>44979</v>
           </cell>
           <cell r="D6" t="str">
-            <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. </v>
+            <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
           </cell>
         </row>
         <row r="7">
@@ -173,7 +176,8 @@
             <v>44981</v>
           </cell>
           <cell r="D7" t="str">
-            <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
+            <v xml:space="preserve">Input and output in R.
+Writing loops. For and while constructs. </v>
           </cell>
         </row>
         <row r="8">
@@ -181,9 +185,7 @@
             <v>44985</v>
           </cell>
           <cell r="D8" t="str">
-            <v xml:space="preserve">Memories. Input/output devices. CPU types.
-Operating system. Bootstrap process. Multitasking. 
-Logical operators and De Morgan laws. Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
+            <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
           </cell>
         </row>
         <row r="9">
@@ -191,7 +193,7 @@
             <v>44986</v>
           </cell>
           <cell r="D9" t="str">
-            <v>Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Coding repetitions in R. For and while constructs. Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
+            <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
           </cell>
         </row>
         <row r="10">
@@ -199,7 +201,7 @@
             <v>44988</v>
           </cell>
           <cell r="D10" t="str">
-            <v>Examples of loops in R. Nesting multiple loops</v>
+            <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
           </cell>
         </row>
         <row r="11">
@@ -721,12 +723,13 @@
     <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f>[1]Foglio1!A4</f>
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>[1]Foglio1!D4</f>
-        <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
-R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. </v>
+        <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
+R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
+Logical operators and De Morgan laws.</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -736,7 +739,9 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]Foglio1!D5</f>
-        <v>Examples of expressions</v>
+        <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
+Memories. Input/output devices. CPU types.
+Operating system. Bootstrap process. Multitasking. </v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -746,7 +751,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>[1]Foglio1!D6</f>
-        <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. </v>
+        <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -756,7 +761,8 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>[1]Foglio1!D7</f>
-        <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
+        <v xml:space="preserve">Input and output in R.
+Writing loops. For and while constructs. </v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -766,9 +772,7 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>[1]Foglio1!D8</f>
-        <v xml:space="preserve">Memories. Input/output devices. CPU types.
-Operating system. Bootstrap process. Multitasking. 
-Logical operators and De Morgan laws. Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
+        <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -778,7 +782,7 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>[1]Foglio1!D9</f>
-        <v>Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Coding repetitions in R. For and while constructs. Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
+        <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -788,7 +792,7 @@
       </c>
       <c r="B10" s="2" t="str">
         <f>[1]Foglio1!D10</f>
-        <v>Examples of loops in R. Nesting multiple loops</v>
+        <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677E3E2-A3F6-0E47-BAB3-7F91F16A7B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052F24E-FA37-2D4B-947B-B2FB904DDC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -176,8 +176,9 @@
             <v>44981</v>
           </cell>
           <cell r="D7" t="str">
-            <v xml:space="preserve">Input and output in R.
-Writing loops. For and while constructs. </v>
+            <v>Input and output in R.
+Writing loops. For and while constructs. 
+Compound interest in R. Integer division in R</v>
           </cell>
         </row>
         <row r="8">
@@ -678,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,8 +762,9 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>[1]Foglio1!D7</f>
-        <v xml:space="preserve">Input and output in R.
-Writing loops. For and while constructs. </v>
+        <v>Input and output in R.
+Writing loops. For and while constructs. 
+Compound interest in R. Integer division in R</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="68" x14ac:dyDescent="0.2">

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052F24E-FA37-2D4B-947B-B2FB904DDC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51928A78-CF9F-8946-9043-4C89C9D1C2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -223,154 +223,146 @@
         </row>
         <row r="13">
           <cell r="A13">
-            <v>44995</v>
+            <v>44999</v>
           </cell>
           <cell r="D13" t="str">
-            <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. </v>
+            <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>44999</v>
+            <v>45000</v>
           </cell>
           <cell r="D14" t="str">
-            <v xml:space="preserve">Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
+            <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45000</v>
+            <v>45002</v>
           </cell>
           <cell r="D15" t="str">
-            <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
+            <v>Accessing and reshaping a data frame.</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45002</v>
+            <v>45034</v>
           </cell>
           <cell r="D16" t="str">
-            <v>Accessing and reshaping a data frame.</v>
+            <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
+Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45034</v>
+            <v>45036</v>
           </cell>
           <cell r="D17" t="str">
-            <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
-Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
+            <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45036</v>
+            <v>45037</v>
           </cell>
           <cell r="D18" t="str">
-            <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
+            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45037</v>
+            <v>45043</v>
           </cell>
           <cell r="D19" t="str">
-            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
+            <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45043</v>
+            <v>45044</v>
           </cell>
           <cell r="D20" t="str">
-            <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+            <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45044</v>
+            <v>45048</v>
           </cell>
           <cell r="D21" t="str">
-            <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
+            <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45048</v>
+            <v>45050</v>
           </cell>
           <cell r="D22" t="str">
-            <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
+            <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45050</v>
+            <v>45051</v>
           </cell>
           <cell r="D23" t="str">
-            <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
+            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45051</v>
+            <v>45055</v>
           </cell>
           <cell r="D24" t="str">
-            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+            <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45055</v>
+            <v>45057</v>
           </cell>
           <cell r="D25" t="str">
-            <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+            <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45057</v>
+            <v>45058</v>
           </cell>
           <cell r="D26" t="str">
-            <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+            <v>String manipulation with R. Regular expressions for string manipulation</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45058</v>
+            <v>45062</v>
           </cell>
           <cell r="D27" t="str">
-            <v>String manipulation with R. Regular expressions for string manipulation</v>
+            <v>Examples of string manipulation with R. Example of text analysis</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45062</v>
+            <v>45064</v>
           </cell>
           <cell r="D28" t="str">
-            <v>Examples of string manipulation with R. Example of text analysis</v>
+            <v>Date values https://www.statmethods.net/input/dates.html</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45064</v>
+            <v>45065</v>
           </cell>
           <cell r="D29" t="str">
-            <v>Date values https://www.statmethods.net/input/dates.html</v>
+            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45065</v>
+            <v>45069</v>
           </cell>
           <cell r="D30" t="str">
-            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>45069</v>
-          </cell>
-          <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
@@ -679,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -820,192 +812,192 @@
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f>[1]Foglio1!A13</f>
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>[1]Foglio1!D13</f>
-        <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. </v>
+        <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <f>[1]Foglio1!A14</f>
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>[1]Foglio1!D14</f>
-        <v xml:space="preserve">Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
+        <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f>[1]Foglio1!A15</f>
-        <v>45000</v>
+        <v>45002</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>[1]Foglio1!D15</f>
-        <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
+        <v>Accessing and reshaping a data frame.</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f>[1]Foglio1!A16</f>
-        <v>45002</v>
+        <v>45034</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>[1]Foglio1!D16</f>
-        <v>Accessing and reshaping a data frame.</v>
+        <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
+Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f>[1]Foglio1!A17</f>
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>[1]Foglio1!D17</f>
-        <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
-Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
+        <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f>[1]Foglio1!A18</f>
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>[1]Foglio1!D18</f>
-        <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
+        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f>[1]Foglio1!A19</f>
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>[1]Foglio1!D19</f>
-        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
+        <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f>[1]Foglio1!A20</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>[1]Foglio1!D20</f>
-        <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+        <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>[1]Foglio1!D21</f>
-        <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
+        <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
-        <v>45048</v>
+        <v>45050</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
-        <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
+        <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>[1]Foglio1!D23</f>
-        <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
+        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f>[1]Foglio1!A24</f>
-        <v>45051</v>
+        <v>45055</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]Foglio1!D24</f>
-        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+        <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
-        <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+        <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
-        <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+        <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
-        <v>String manipulation with R. Regular expressions for string manipulation</v>
+        <v>Examples of string manipulation with R. Example of text analysis</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
-        <v>Examples of string manipulation with R. Example of text analysis</v>
+        <v>Date values https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
-        <v>Date values https://www.statmethods.net/input/dates.html</v>
+        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
-        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
+        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>45069</v>
-      </c>
-      <c r="B31" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
         <f>[1]Foglio1!D31</f>
-        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51928A78-CF9F-8946-9043-4C89C9D1C2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2923A36-7FA9-BD41-9642-3E19DCE7BA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -247,122 +247,130 @@
         </row>
         <row r="16">
           <cell r="A16">
+            <v>45005</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Review of first part</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
             <v>45034</v>
           </cell>
-          <cell r="D16" t="str">
+          <cell r="D17" t="str">
             <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
           </cell>
         </row>
-        <row r="17">
-          <cell r="A17">
-            <v>45036</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
-          </cell>
-        </row>
         <row r="18">
           <cell r="A18">
-            <v>45037</v>
+            <v>45036</v>
           </cell>
           <cell r="D18" t="str">
-            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
+            <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45043</v>
+            <v>45037</v>
           </cell>
           <cell r="D19" t="str">
-            <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45044</v>
+            <v>45043</v>
           </cell>
           <cell r="D20" t="str">
-            <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
+            <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45048</v>
+            <v>45044</v>
           </cell>
           <cell r="D21" t="str">
-            <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
+            <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45050</v>
+            <v>45048</v>
           </cell>
           <cell r="D22" t="str">
-            <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
+            <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45051</v>
+            <v>45050</v>
           </cell>
           <cell r="D23" t="str">
-            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+            <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45055</v>
+            <v>45051</v>
           </cell>
           <cell r="D24" t="str">
-            <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45057</v>
+            <v>45055</v>
           </cell>
           <cell r="D25" t="str">
-            <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+            <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45058</v>
+            <v>45057</v>
           </cell>
           <cell r="D26" t="str">
-            <v>String manipulation with R. Regular expressions for string manipulation</v>
+            <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45062</v>
+            <v>45058</v>
           </cell>
           <cell r="D27" t="str">
-            <v>Examples of string manipulation with R. Example of text analysis</v>
+            <v>String manipulation with R. Regular expressions for string manipulation</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45064</v>
+            <v>45062</v>
           </cell>
           <cell r="D28" t="str">
-            <v>Date values https://www.statmethods.net/input/dates.html</v>
+            <v>Examples of string manipulation with R. Example of text analysis</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45065</v>
+            <v>45064</v>
           </cell>
           <cell r="D29" t="str">
-            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
+            <v>Date values https://www.statmethods.net/input/dates.html</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
+            <v>45065</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
             <v>45069</v>
           </cell>
-          <cell r="D30" t="str">
+          <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
@@ -672,7 +680,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,162 +850,162 @@
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f>[1]Foglio1!A16</f>
-        <v>45034</v>
+        <v>45005</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>[1]Foglio1!D16</f>
-        <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
-Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
+        <v>Review of first part</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f>[1]Foglio1!A17</f>
-        <v>45036</v>
+        <v>45034</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>[1]Foglio1!D17</f>
-        <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
+        <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
+Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f>[1]Foglio1!A18</f>
-        <v>45037</v>
+        <v>45036</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>[1]Foglio1!D18</f>
-        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
+        <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f>[1]Foglio1!A19</f>
-        <v>45043</v>
+        <v>45037</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>[1]Foglio1!D19</f>
-        <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f>[1]Foglio1!A20</f>
-        <v>45044</v>
+        <v>45043</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>[1]Foglio1!D20</f>
-        <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
+        <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
-        <v>45048</v>
+        <v>45044</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>[1]Foglio1!D21</f>
-        <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
+        <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
-        <v>45050</v>
+        <v>45048</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
-        <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
+        <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
-        <v>45051</v>
+        <v>45050</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>[1]Foglio1!D23</f>
-        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+        <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f>[1]Foglio1!A24</f>
-        <v>45055</v>
+        <v>45051</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]Foglio1!D24</f>
-        <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
-        <v>45057</v>
+        <v>45055</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
-        <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+        <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
-        <v>String manipulation with R. Regular expressions for string manipulation</v>
+        <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
-        <v>45062</v>
+        <v>45058</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
-        <v>Examples of string manipulation with R. Example of text analysis</v>
+        <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
-        <v>45064</v>
+        <v>45062</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
-        <v>Date values https://www.statmethods.net/input/dates.html</v>
+        <v>Examples of string manipulation with R. Example of text analysis</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45065</v>
+        <v>45064</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
-        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
+        <v>Date values https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45069</v>
+        <v>45065</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
-        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
+        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>0</v>
-      </c>
-      <c r="B31" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B31" s="2" t="str">
         <f>[1]Foglio1!D31</f>
-        <v>0</v>
+        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/Library/CloudStorage/OneDrive-AlmaMaterStudiorumUniversitàdiBologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2923A36-7FA9-BD41-9642-3E19DCE7BA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E0EF2-544A-8E44-A005-415FCDC9A58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -275,7 +275,7 @@
             <v>45037</v>
           </cell>
           <cell r="D19" t="str">
-            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
+            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
           </cell>
         </row>
         <row r="20">
@@ -885,7 +885,7 @@
       </c>
       <c r="B19" s="2" t="str">
         <f>[1]Foglio1!D19</f>
-        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search.  Intersecting n alphabetized lists. </v>
+        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/claudio_sartori_unibo_it/Documents/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2923A36-7FA9-BD41-9642-3E19DCE7BA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2923A36-7FA9-BD41-9642-3E19DCE7BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/Library/CloudStorage/OneDrive-AlmaMaterStudiorumUniversitàdiBologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E0EF2-544A-8E44-A005-415FCDC9A58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6C4E9-D373-6C41-AAB6-44E2D70E1BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -299,7 +299,7 @@
             <v>45048</v>
           </cell>
           <cell r="D22" t="str">
-            <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
+            <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
           </cell>
         </row>
         <row r="23">
@@ -307,7 +307,7 @@
             <v>45050</v>
           </cell>
           <cell r="D23" t="str">
-            <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
+            <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
           </cell>
         </row>
         <row r="24">
@@ -915,7 +915,7 @@
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
-        <v>Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization.</v>
+        <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
       </c>
       <c r="B23" s="2" t="str">
         <f>[1]Foglio1!D23</f>
-        <v xml:space="preserve">Subsetting data structures in R. Types of subsetting. Types of indexing. The principles of pseudo-Random number generation. </v>
+        <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E6C4E9-D373-6C41-AAB6-44E2D70E1BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB5051-C148-3245-9ED0-426B03F75E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
+    <workbookView xWindow="2180" yWindow="2480" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB5051-C148-3245-9ED0-426B03F75E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF88C67-F75F-3B4F-BC01-34D19C586A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="2480" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
+    <workbookView xWindow="11820" yWindow="1520" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
             <v>45055</v>
           </cell>
           <cell r="D25" t="str">
-            <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+            <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
           </cell>
         </row>
         <row r="26">
@@ -331,7 +331,7 @@
             <v>45057</v>
           </cell>
           <cell r="D26" t="str">
-            <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+            <v xml:space="preserve">Plotting data. </v>
           </cell>
         </row>
         <row r="27">
@@ -339,7 +339,7 @@
             <v>45058</v>
           </cell>
           <cell r="D27" t="str">
-            <v>String manipulation with R. Regular expressions for string manipulation</v>
+            <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
           </cell>
         </row>
         <row r="28">
@@ -347,7 +347,7 @@
             <v>45062</v>
           </cell>
           <cell r="D28" t="str">
-            <v>Examples of string manipulation with R. Example of text analysis</v>
+            <v>String manipulation with R. Regular expressions for string manipulation</v>
           </cell>
         </row>
         <row r="29">
@@ -355,7 +355,7 @@
             <v>45064</v>
           </cell>
           <cell r="D29" t="str">
-            <v>Date values https://www.statmethods.net/input/dates.html</v>
+            <v>Examples of string manipulation with R. Example of text analysis</v>
           </cell>
         </row>
         <row r="30">
@@ -363,7 +363,7 @@
             <v>45065</v>
           </cell>
           <cell r="D30" t="str">
-            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
+            <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
           </cell>
         </row>
         <row r="31">
@@ -680,7 +680,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
-        <v xml:space="preserve"> Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+        <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
-        <v xml:space="preserve">Plotting data. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+        <v xml:space="preserve">Plotting data. </v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
-        <v>String manipulation with R. Regular expressions for string manipulation</v>
+        <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
-        <v>Examples of string manipulation with R. Example of text analysis</v>
+        <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
-        <v>Date values https://www.statmethods.net/input/dates.html</v>
+        <v>Examples of string manipulation with R. Example of text analysis</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
-        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 1 and 2</v>
+        <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF88C67-F75F-3B4F-BC01-34D19C586A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFDE46D-DD18-2E4B-A04B-B1F60218003F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="1520" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
+    <workbookView xWindow="4660" yWindow="6000" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,9 +126,23 @@
             <v>Topics</v>
           </cell>
         </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Foglio1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="A2">
-            <v>44971</v>
+            <v>45334</v>
           </cell>
           <cell r="D2" t="str">
             <v xml:space="preserve">General description of the course, assessment method. 
@@ -137,25 +152,25 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44972</v>
+            <v>45335</v>
           </cell>
           <cell r="D3" t="str">
-            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44974</v>
-          </cell>
-          <cell r="D4" t="str">
             <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
 Logical operators and De Morgan laws.</v>
           </cell>
         </row>
+        <row r="4">
+          <cell r="A4">
+            <v>45337</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="A5">
-            <v>44978</v>
+            <v>45341</v>
           </cell>
           <cell r="D5" t="str">
             <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
@@ -165,7 +180,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44979</v>
+            <v>45342</v>
           </cell>
           <cell r="D6" t="str">
             <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
@@ -173,7 +188,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44981</v>
+            <v>45344</v>
           </cell>
           <cell r="D7" t="str">
             <v>Input and output in R.
@@ -183,7 +198,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44985</v>
+            <v>45348</v>
           </cell>
           <cell r="D8" t="str">
             <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
@@ -191,7 +206,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44986</v>
+            <v>45349</v>
           </cell>
           <cell r="D9" t="str">
             <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
@@ -199,7 +214,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44988</v>
+            <v>45351</v>
           </cell>
           <cell r="D10" t="str">
             <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
@@ -207,7 +222,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44992</v>
+            <v>45355</v>
           </cell>
           <cell r="D11" t="str">
             <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
@@ -215,7 +230,7 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44993</v>
+            <v>45356</v>
           </cell>
           <cell r="D12" t="str">
             <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
@@ -223,7 +238,7 @@
         </row>
         <row r="13">
           <cell r="A13">
-            <v>44999</v>
+            <v>45358</v>
           </cell>
           <cell r="D13" t="str">
             <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
@@ -231,7 +246,7 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45000</v>
+            <v>45362</v>
           </cell>
           <cell r="D14" t="str">
             <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
@@ -239,7 +254,7 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45002</v>
+            <v>45363</v>
           </cell>
           <cell r="D15" t="str">
             <v>Accessing and reshaping a data frame.</v>
@@ -247,7 +262,7 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45005</v>
+            <v>45365</v>
           </cell>
           <cell r="D16" t="str">
             <v>Review of first part</v>
@@ -255,7 +270,7 @@
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45034</v>
+            <v>45399</v>
           </cell>
           <cell r="D17" t="str">
             <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
@@ -264,7 +279,7 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45036</v>
+            <v>45400</v>
           </cell>
           <cell r="D18" t="str">
             <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
@@ -272,7 +287,7 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45037</v>
+            <v>45401</v>
           </cell>
           <cell r="D19" t="str">
             <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
@@ -280,7 +295,7 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45043</v>
+            <v>45406</v>
           </cell>
           <cell r="D20" t="str">
             <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
@@ -288,7 +303,7 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45044</v>
+            <v>45408</v>
           </cell>
           <cell r="D21" t="str">
             <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
@@ -296,7 +311,7 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45048</v>
+            <v>45408</v>
           </cell>
           <cell r="D22" t="str">
             <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
@@ -304,7 +319,7 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45050</v>
+            <v>45413</v>
           </cell>
           <cell r="D23" t="str">
             <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
@@ -312,7 +327,7 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45051</v>
+            <v>45415</v>
           </cell>
           <cell r="D24" t="str">
             <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
@@ -320,7 +335,7 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45055</v>
+            <v>45415</v>
           </cell>
           <cell r="D25" t="str">
             <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
@@ -328,7 +343,7 @@
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45057</v>
+            <v>45420</v>
           </cell>
           <cell r="D26" t="str">
             <v xml:space="preserve">Plotting data. </v>
@@ -336,7 +351,7 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45058</v>
+            <v>45422</v>
           </cell>
           <cell r="D27" t="str">
             <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
@@ -344,7 +359,7 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45062</v>
+            <v>45422</v>
           </cell>
           <cell r="D28" t="str">
             <v>String manipulation with R. Regular expressions for string manipulation</v>
@@ -352,7 +367,7 @@
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45064</v>
+            <v>45427</v>
           </cell>
           <cell r="D29" t="str">
             <v>Examples of string manipulation with R. Example of text analysis</v>
@@ -360,7 +375,7 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45065</v>
+            <v>45429</v>
           </cell>
           <cell r="D30" t="str">
             <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
@@ -368,7 +383,7 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45069</v>
+            <v>45429</v>
           </cell>
           <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
@@ -679,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,312 +714,312 @@
         <v>Topics</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <f>[1]Foglio1!A2</f>
-        <v>44971</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>[1]Foglio1!D2</f>
+        <f>[2]Foglio1!A2</f>
+        <v>45334</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>[2]Foglio1!D2</f>
         <v xml:space="preserve">General description of the course, assessment method. 
 Defining IT, a short history.
 HCI, the desktop metaphor. Networking: lan, wan, network types, dns, url. </v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <f>[1]Foglio1!A3</f>
-        <v>44972</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>[1]Foglio1!D3</f>
-        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <f>[1]Foglio1!A4</f>
-        <v>44974</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>[1]Foglio1!D4</f>
+        <f>[2]Foglio1!A3</f>
+        <v>45335</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f>[2]Foglio1!D3</f>
         <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
 Logical operators and De Morgan laws.</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f>[2]Foglio1!A4</f>
+        <v>45337</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f>[2]Foglio1!D4</f>
+        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <f>[1]Foglio1!A5</f>
-        <v>44978</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>[1]Foglio1!D5</f>
+        <f>[2]Foglio1!A5</f>
+        <v>45341</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f>[2]Foglio1!D5</f>
         <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
 Memories. Input/output devices. CPU types.
 Operating system. Bootstrap process. Multitasking. </v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <f>[1]Foglio1!A6</f>
-        <v>44979</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>[1]Foglio1!D6</f>
+        <f>[2]Foglio1!A6</f>
+        <v>45342</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>[2]Foglio1!D6</f>
         <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <f>[1]Foglio1!A7</f>
-        <v>44981</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>[1]Foglio1!D7</f>
+        <f>[2]Foglio1!A7</f>
+        <v>45344</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>[2]Foglio1!D7</f>
         <v>Input and output in R.
 Writing loops. For and while constructs. 
 Compound interest in R. Integer division in R</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <f>[1]Foglio1!A8</f>
-        <v>44985</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>[1]Foglio1!D8</f>
+        <f>[2]Foglio1!A8</f>
+        <v>45348</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f>[2]Foglio1!D8</f>
         <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <f>[1]Foglio1!A9</f>
-        <v>44986</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>[1]Foglio1!D9</f>
+        <f>[2]Foglio1!A9</f>
+        <v>45349</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>[2]Foglio1!D9</f>
         <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <f>[1]Foglio1!A10</f>
-        <v>44988</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>[1]Foglio1!D10</f>
+        <f>[2]Foglio1!A10</f>
+        <v>45351</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>[2]Foglio1!D10</f>
         <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <f>[1]Foglio1!A11</f>
-        <v>44992</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>[1]Foglio1!D11</f>
+        <f>[2]Foglio1!A11</f>
+        <v>45355</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f>[2]Foglio1!D11</f>
         <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <f>[1]Foglio1!A12</f>
-        <v>44993</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>[1]Foglio1!D12</f>
+        <f>[2]Foglio1!A12</f>
+        <v>45356</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>[2]Foglio1!D12</f>
         <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <f>[1]Foglio1!A13</f>
-        <v>44999</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>[1]Foglio1!D13</f>
+        <f>[2]Foglio1!A13</f>
+        <v>45358</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f>[2]Foglio1!D13</f>
         <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <f>[1]Foglio1!A14</f>
-        <v>45000</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>[1]Foglio1!D14</f>
+        <f>[2]Foglio1!A14</f>
+        <v>45362</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>[2]Foglio1!D14</f>
         <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <f>[1]Foglio1!A15</f>
-        <v>45002</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>[1]Foglio1!D15</f>
+        <f>[2]Foglio1!A15</f>
+        <v>45363</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>[2]Foglio1!D15</f>
         <v>Accessing and reshaping a data frame.</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <f>[1]Foglio1!A16</f>
-        <v>45005</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>[1]Foglio1!D16</f>
+        <f>[2]Foglio1!A16</f>
+        <v>45365</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>[2]Foglio1!D16</f>
         <v>Review of first part</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <f>[1]Foglio1!A17</f>
-        <v>45034</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>[1]Foglio1!D17</f>
+        <f>[2]Foglio1!A17</f>
+        <v>45399</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>[2]Foglio1!D17</f>
         <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <f>[1]Foglio1!A18</f>
-        <v>45036</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>[1]Foglio1!D18</f>
+        <f>[2]Foglio1!A18</f>
+        <v>45400</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>[2]Foglio1!D18</f>
         <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <f>[1]Foglio1!A19</f>
-        <v>45037</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>[1]Foglio1!D19</f>
+        <f>[2]Foglio1!A19</f>
+        <v>45401</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>[2]Foglio1!D19</f>
         <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <f>[1]Foglio1!A20</f>
-        <v>45043</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>[1]Foglio1!D20</f>
+        <f>[2]Foglio1!A20</f>
+        <v>45406</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>[2]Foglio1!D20</f>
         <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <f>[1]Foglio1!A21</f>
-        <v>45044</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>[1]Foglio1!D21</f>
+        <f>[2]Foglio1!A21</f>
+        <v>45408</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>[2]Foglio1!D21</f>
         <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <f>[1]Foglio1!A22</f>
-        <v>45048</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>[1]Foglio1!D22</f>
+        <f>[2]Foglio1!A22</f>
+        <v>45408</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>[2]Foglio1!D22</f>
         <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <f>[1]Foglio1!A23</f>
-        <v>45050</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>[1]Foglio1!D23</f>
+        <f>[2]Foglio1!A23</f>
+        <v>45413</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>[2]Foglio1!D23</f>
         <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <f>[1]Foglio1!A24</f>
-        <v>45051</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>[1]Foglio1!D24</f>
+        <f>[2]Foglio1!A24</f>
+        <v>45415</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>[2]Foglio1!D24</f>
         <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <f>[1]Foglio1!A25</f>
-        <v>45055</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>[1]Foglio1!D25</f>
+        <f>[2]Foglio1!A25</f>
+        <v>45415</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>[2]Foglio1!D25</f>
         <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <f>[1]Foglio1!A26</f>
-        <v>45057</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f>[1]Foglio1!D26</f>
+        <f>[2]Foglio1!A26</f>
+        <v>45420</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>[2]Foglio1!D26</f>
         <v xml:space="preserve">Plotting data. </v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <f>[1]Foglio1!A27</f>
-        <v>45058</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <f>[1]Foglio1!D27</f>
+        <f>[2]Foglio1!A27</f>
+        <v>45422</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>[2]Foglio1!D27</f>
         <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <f>[1]Foglio1!A28</f>
-        <v>45062</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f>[1]Foglio1!D28</f>
+        <f>[2]Foglio1!A28</f>
+        <v>45422</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>[2]Foglio1!D28</f>
         <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <f>[1]Foglio1!A29</f>
-        <v>45064</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f>[1]Foglio1!D29</f>
+        <f>[2]Foglio1!A29</f>
+        <v>45427</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>[2]Foglio1!D29</f>
         <v>Examples of string manipulation with R. Example of text analysis</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <f>[1]Foglio1!A30</f>
-        <v>45065</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <f>[1]Foglio1!D30</f>
+        <f>[2]Foglio1!A30</f>
+        <v>45429</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <f>[2]Foglio1!D30</f>
         <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <f>[1]Foglio1!A31</f>
-        <v>45069</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f>[1]Foglio1!D31</f>
+        <f>[2]Foglio1!A31</f>
+        <v>45429</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f>[2]Foglio1!D31</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/OneDrive - Alma Mater Studiorum Università di Bologna/Didattica/Informatics/Informatics-Stats-and-Maths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/Sites/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF88C67-F75F-3B4F-BC01-34D19C586A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A341E8-03A7-3D41-A0F2-A971DA900716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11820" yWindow="1520" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -110,10 +110,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Foglio1"/>
+      <sheetName val="registroInformatics_2023_2024"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -127,7 +128,7 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44971</v>
+            <v>45334</v>
           </cell>
           <cell r="D2" t="str">
             <v xml:space="preserve">General description of the course, assessment method. 
@@ -137,25 +138,25 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44972</v>
+            <v>45335</v>
           </cell>
           <cell r="D3" t="str">
-            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44974</v>
-          </cell>
-          <cell r="D4" t="str">
             <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
 Logical operators and De Morgan laws.</v>
           </cell>
         </row>
+        <row r="4">
+          <cell r="A4">
+            <v>45337</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="A5">
-            <v>44978</v>
+            <v>45341</v>
           </cell>
           <cell r="D5" t="str">
             <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
@@ -165,7 +166,7 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44979</v>
+            <v>45342</v>
           </cell>
           <cell r="D6" t="str">
             <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
@@ -173,7 +174,7 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44981</v>
+            <v>45344</v>
           </cell>
           <cell r="D7" t="str">
             <v>Input and output in R.
@@ -183,7 +184,7 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44985</v>
+            <v>45348</v>
           </cell>
           <cell r="D8" t="str">
             <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
@@ -191,7 +192,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44986</v>
+            <v>45349</v>
           </cell>
           <cell r="D9" t="str">
             <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
@@ -199,7 +200,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44988</v>
+            <v>45351</v>
           </cell>
           <cell r="D10" t="str">
             <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
@@ -207,7 +208,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44992</v>
+            <v>45355</v>
           </cell>
           <cell r="D11" t="str">
             <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
@@ -215,7 +216,7 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44993</v>
+            <v>45356</v>
           </cell>
           <cell r="D12" t="str">
             <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
@@ -223,7 +224,7 @@
         </row>
         <row r="13">
           <cell r="A13">
-            <v>44999</v>
+            <v>45358</v>
           </cell>
           <cell r="D13" t="str">
             <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
@@ -231,7 +232,7 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45000</v>
+            <v>45362</v>
           </cell>
           <cell r="D14" t="str">
             <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
@@ -239,7 +240,7 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45002</v>
+            <v>45363</v>
           </cell>
           <cell r="D15" t="str">
             <v>Accessing and reshaping a data frame.</v>
@@ -247,7 +248,7 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45005</v>
+            <v>45365</v>
           </cell>
           <cell r="D16" t="str">
             <v>Review of first part</v>
@@ -255,7 +256,7 @@
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45034</v>
+            <v>45399</v>
           </cell>
           <cell r="D17" t="str">
             <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
@@ -264,7 +265,7 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45036</v>
+            <v>45400</v>
           </cell>
           <cell r="D18" t="str">
             <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
@@ -272,7 +273,7 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45037</v>
+            <v>45401</v>
           </cell>
           <cell r="D19" t="str">
             <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
@@ -280,7 +281,7 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45043</v>
+            <v>45406</v>
           </cell>
           <cell r="D20" t="str">
             <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
@@ -288,7 +289,7 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45044</v>
+            <v>45408</v>
           </cell>
           <cell r="D21" t="str">
             <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
@@ -296,7 +297,7 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45048</v>
+            <v>45408</v>
           </cell>
           <cell r="D22" t="str">
             <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
@@ -304,7 +305,7 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45050</v>
+            <v>45413</v>
           </cell>
           <cell r="D23" t="str">
             <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
@@ -312,7 +313,7 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45051</v>
+            <v>45415</v>
           </cell>
           <cell r="D24" t="str">
             <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
@@ -320,7 +321,7 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45055</v>
+            <v>45415</v>
           </cell>
           <cell r="D25" t="str">
             <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
@@ -328,7 +329,7 @@
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45057</v>
+            <v>45420</v>
           </cell>
           <cell r="D26" t="str">
             <v xml:space="preserve">Plotting data. </v>
@@ -336,7 +337,7 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45058</v>
+            <v>45422</v>
           </cell>
           <cell r="D27" t="str">
             <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
@@ -344,7 +345,7 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45062</v>
+            <v>45422</v>
           </cell>
           <cell r="D28" t="str">
             <v>String manipulation with R. Regular expressions for string manipulation</v>
@@ -352,7 +353,7 @@
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45064</v>
+            <v>45427</v>
           </cell>
           <cell r="D29" t="str">
             <v>Examples of string manipulation with R. Example of text analysis</v>
@@ -360,7 +361,7 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45065</v>
+            <v>45429</v>
           </cell>
           <cell r="D30" t="str">
             <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
@@ -368,22 +369,23 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45069</v>
+            <v>45429</v>
           </cell>
           <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,10 +701,10 @@
         <v>Topics</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f>[1]Foglio1!A2</f>
-        <v>44971</v>
+        <v>45334</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>[1]Foglio1!D2</f>
@@ -711,32 +713,32 @@
 HCI, the desktop metaphor. Networking: lan, wan, network types, dns, url. </v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f>[1]Foglio1!A3</f>
-        <v>44972</v>
+        <v>45335</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>[1]Foglio1!D3</f>
-        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <f>[1]Foglio1!A4</f>
-        <v>44974</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>[1]Foglio1!D4</f>
         <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
 Logical operators and De Morgan laws.</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f>[1]Foglio1!A4</f>
+        <v>45337</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>[1]Foglio1!D4</f>
+        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <f>[1]Foglio1!A5</f>
-        <v>44978</v>
+        <v>45341</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>[1]Foglio1!D5</f>
@@ -745,20 +747,20 @@
 Operating system. Bootstrap process. Multitasking. </v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f>[1]Foglio1!A6</f>
-        <v>44979</v>
+        <v>45342</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>[1]Foglio1!D6</f>
         <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f>[1]Foglio1!A7</f>
-        <v>44981</v>
+        <v>45344</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>[1]Foglio1!D7</f>
@@ -767,100 +769,100 @@
 Compound interest in R. Integer division in R</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <f>[1]Foglio1!A8</f>
-        <v>44985</v>
+        <v>45348</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>[1]Foglio1!D8</f>
         <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f>[1]Foglio1!A9</f>
-        <v>44986</v>
+        <v>45349</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>[1]Foglio1!D9</f>
         <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f>[1]Foglio1!A10</f>
-        <v>44988</v>
+        <v>45351</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>[1]Foglio1!D10</f>
         <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f>[1]Foglio1!A11</f>
-        <v>44992</v>
+        <v>45355</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>[1]Foglio1!D11</f>
         <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <f>[1]Foglio1!A12</f>
-        <v>44993</v>
+        <v>45356</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>[1]Foglio1!D12</f>
         <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f>[1]Foglio1!A13</f>
-        <v>44999</v>
+        <v>45358</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>[1]Foglio1!D13</f>
         <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <f>[1]Foglio1!A14</f>
-        <v>45000</v>
+        <v>45362</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>[1]Foglio1!D14</f>
         <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f>[1]Foglio1!A15</f>
-        <v>45002</v>
+        <v>45363</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>[1]Foglio1!D15</f>
         <v>Accessing and reshaping a data frame.</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f>[1]Foglio1!A16</f>
-        <v>45005</v>
+        <v>45365</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>[1]Foglio1!D16</f>
         <v>Review of first part</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f>[1]Foglio1!A17</f>
-        <v>45034</v>
+        <v>45399</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>[1]Foglio1!D17</f>
@@ -868,140 +870,140 @@
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f>[1]Foglio1!A18</f>
-        <v>45036</v>
+        <v>45400</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>[1]Foglio1!D18</f>
         <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f>[1]Foglio1!A19</f>
-        <v>45037</v>
+        <v>45401</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>[1]Foglio1!D19</f>
         <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f>[1]Foglio1!A20</f>
-        <v>45043</v>
+        <v>45406</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>[1]Foglio1!D20</f>
         <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
-        <v>45044</v>
+        <v>45408</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>[1]Foglio1!D21</f>
         <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
-        <v>45048</v>
+        <v>45408</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
         <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
-        <v>45050</v>
+        <v>45413</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>[1]Foglio1!D23</f>
         <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f>[1]Foglio1!A24</f>
-        <v>45051</v>
+        <v>45415</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]Foglio1!D24</f>
         <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
-        <v>45055</v>
+        <v>45415</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
         <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
-        <v>45057</v>
+        <v>45420</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
         <v xml:space="preserve">Plotting data. </v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
-        <v>45058</v>
+        <v>45422</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
         <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
-        <v>45062</v>
+        <v>45422</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
         <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45064</v>
+        <v>45427</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
         <v>Examples of string manipulation with R. Example of text analysis</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45065</v>
+        <v>45429</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
         <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>45069</v>
+        <v>45429</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>[1]Foglio1!D31</f>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/Sites/GitHub/Informatics-Stats-and-Maths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A341E8-03A7-3D41-A0F2-A971DA900716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5DC0F-CD85-7344-B794-A916DB6A281A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11820" yWindow="1520" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Foglio1"/>
@@ -276,7 +276,7 @@
             <v>45401</v>
           </cell>
           <cell r="D19" t="str">
-            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
+            <v>Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
           </cell>
         </row>
         <row r="20">
@@ -284,12 +284,12 @@
             <v>45406</v>
           </cell>
           <cell r="D20" t="str">
-            <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+            <v>String manipulation with R. Regular expressions for string manipulation</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45408</v>
+            <v>45414</v>
           </cell>
           <cell r="D21" t="str">
             <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
@@ -297,39 +297,39 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45408</v>
+            <v>45415</v>
           </cell>
           <cell r="D22" t="str">
-            <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
+            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45413</v>
+            <v>45420</v>
           </cell>
           <cell r="D23" t="str">
-            <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
+            <v xml:space="preserve">The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45415</v>
+            <v>45421</v>
           </cell>
           <cell r="D24" t="str">
-            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+            <v>Montecarlo methods. Computing Pi with Montecarlo method</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45415</v>
+            <v>45422</v>
           </cell>
           <cell r="D25" t="str">
-            <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+            <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45420</v>
+            <v>45427</v>
           </cell>
           <cell r="D26" t="str">
             <v xml:space="preserve">Plotting data. </v>
@@ -337,7 +337,7 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45422</v>
+            <v>45428</v>
           </cell>
           <cell r="D27" t="str">
             <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
@@ -345,35 +345,31 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45422</v>
+            <v>45429</v>
           </cell>
           <cell r="D28" t="str">
-            <v>String manipulation with R. Regular expressions for string manipulation</v>
+            <v>Examples of string manipulation with R. Example of text analysis</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45427</v>
+            <v>45434</v>
           </cell>
           <cell r="D29" t="str">
-            <v>Examples of string manipulation with R. Example of text analysis</v>
+            <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45429</v>
+            <v>45435</v>
           </cell>
           <cell r="D30" t="str">
-            <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
+            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="A31">
-            <v>45429</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
-          </cell>
+          <cell r="A31"/>
+          <cell r="D31"/>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
@@ -383,9 +379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,7 +419,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -529,7 +525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -671,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +883,7 @@
       </c>
       <c r="B19" s="2" t="str">
         <f>[1]Foglio1!D19</f>
-        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. </v>
+        <v>Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
@@ -897,13 +893,13 @@
       </c>
       <c r="B20" s="2" t="str">
         <f>[1]Foglio1!D20</f>
-        <v>Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+        <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
-        <v>45408</v>
+        <v>45414</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>[1]Foglio1!D21</f>
@@ -913,47 +909,47 @@
     <row r="22" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
-        <v>45408</v>
+        <v>45415</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
-        <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
+        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
-        <v>45413</v>
+        <v>45420</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>[1]Foglio1!D23</f>
-        <v xml:space="preserve">The principles of pseudo-Random number generation. </v>
+        <v xml:space="preserve">The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f>[1]Foglio1!A24</f>
-        <v>45415</v>
+        <v>45421</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]Foglio1!D24</f>
-        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+        <v>Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
-        <v>45415</v>
+        <v>45422</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
-        <v>Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+        <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
-        <v>45420</v>
+        <v>45427</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
@@ -963,7 +959,7 @@
     <row r="27" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
@@ -973,41 +969,41 @@
     <row r="28" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
-        <v>45422</v>
+        <v>45429</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
-        <v>String manipulation with R. Regular expressions for string manipulation</v>
+        <v>Examples of string manipulation with R. Example of text analysis</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45427</v>
+        <v>45434</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
-        <v>Examples of string manipulation with R. Example of text analysis</v>
+        <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45429</v>
+        <v>45435</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
-        <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
+        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>45429</v>
-      </c>
-      <c r="B31" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
         <f>[1]Foglio1!D31</f>
-        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5DC0F-CD85-7344-B794-A916DB6A281A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A3319-6552-8D45-AAC0-0FEA72DFE62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11820" yWindow="1520" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -348,12 +348,12 @@
             <v>45429</v>
           </cell>
           <cell r="D28" t="str">
-            <v>Examples of string manipulation with R. Example of text analysis</v>
+            <v>Numerical methods - continued</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45434</v>
+            <v>45433</v>
           </cell>
           <cell r="D29" t="str">
             <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
@@ -361,15 +361,19 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45435</v>
+            <v>45434</v>
           </cell>
           <cell r="D30" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="A31"/>
-          <cell r="D31"/>
+          <cell r="A31">
+            <v>45435</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
@@ -677,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -973,13 +977,13 @@
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
-        <v>Examples of string manipulation with R. Example of text analysis</v>
+        <v>Numerical methods - continued</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
@@ -989,7 +993,7 @@
     <row r="30" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
@@ -999,11 +1003,11 @@
     <row r="31" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>0</v>
-      </c>
-      <c r="B31" s="2">
+        <v>45435</v>
+      </c>
+      <c r="B31" s="2" t="str">
         <f>[1]Foglio1!D31</f>
-        <v>0</v>
+        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4A3319-6552-8D45-AAC0-0FEA72DFE62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EF337B-03FF-3B4F-A60E-B766760FEA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="1520" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,11 +112,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Foglio1"/>
-      <sheetName val="registroInformatics_2023_2024"/>
+      <sheetName val="registroInformatics_2024_2025"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -128,45 +130,46 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>45334</v>
+            <v>45698</v>
           </cell>
           <cell r="D2" t="str">
             <v xml:space="preserve">General description of the course, assessment method. 
 Defining IT, a short history.
-HCI, the desktop metaphor. Networking: lan, wan, network types, dns, url. </v>
+Networking: lan, wan, network types, dns, url. </v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>45335</v>
+            <v>45699</v>
           </cell>
           <cell r="D3" t="str">
-            <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
-R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
-Logical operators and De Morgan laws.</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>45337</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>45341</v>
-          </cell>
-          <cell r="D5" t="str">
             <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
 Memories. Input/output devices. CPU types.
 Operating system. Bootstrap process. Multitasking. </v>
           </cell>
         </row>
+        <row r="4">
+          <cell r="A4">
+            <v>45700</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
+R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
+Logical operators and De Morgan laws.
+Changing the type of an expression. Console input and output. Input from file. </v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>45705</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+          </cell>
+        </row>
         <row r="6">
           <cell r="A6">
-            <v>45342</v>
+            <v>45706</v>
           </cell>
           <cell r="D6" t="str">
             <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
@@ -174,25 +177,24 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>45344</v>
+            <v>45707</v>
           </cell>
           <cell r="D7" t="str">
-            <v>Input and output in R.
-Writing loops. For and while constructs. 
+            <v>Writing loops. For and while constructs. 
 Compound interest in R. Integer division in R</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>45348</v>
+            <v>45712</v>
           </cell>
           <cell r="D8" t="str">
-            <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
+            <v xml:space="preserve">Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>45349</v>
+            <v>45713</v>
           </cell>
           <cell r="D9" t="str">
             <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
@@ -200,7 +202,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>45351</v>
+            <v>45714</v>
           </cell>
           <cell r="D10" t="str">
             <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
@@ -208,7 +210,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>45355</v>
+            <v>45719</v>
           </cell>
           <cell r="D11" t="str">
             <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
@@ -216,7 +218,7 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>45356</v>
+            <v>45720</v>
           </cell>
           <cell r="D12" t="str">
             <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
@@ -224,7 +226,7 @@
         </row>
         <row r="13">
           <cell r="A13">
-            <v>45358</v>
+            <v>45721</v>
           </cell>
           <cell r="D13" t="str">
             <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
@@ -232,7 +234,7 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45362</v>
+            <v>45726</v>
           </cell>
           <cell r="D14" t="str">
             <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
@@ -240,7 +242,7 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45363</v>
+            <v>45727</v>
           </cell>
           <cell r="D15" t="str">
             <v>Accessing and reshaping a data frame.</v>
@@ -248,7 +250,7 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45365</v>
+            <v>45728</v>
           </cell>
           <cell r="D16" t="str">
             <v>Review of first part</v>
@@ -256,7 +258,7 @@
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45399</v>
+            <v>45754</v>
           </cell>
           <cell r="D17" t="str">
             <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
@@ -265,7 +267,7 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45400</v>
+            <v>45755</v>
           </cell>
           <cell r="D18" t="str">
             <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
@@ -273,7 +275,7 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45401</v>
+            <v>45756</v>
           </cell>
           <cell r="D19" t="str">
             <v>Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
@@ -281,7 +283,7 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45406</v>
+            <v>45761</v>
           </cell>
           <cell r="D20" t="str">
             <v>String manipulation with R. Regular expressions for string manipulation</v>
@@ -289,7 +291,7 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45414</v>
+            <v>45762</v>
           </cell>
           <cell r="D21" t="str">
             <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
@@ -297,7 +299,7 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45415</v>
+            <v>45763</v>
           </cell>
           <cell r="D22" t="str">
             <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
@@ -305,7 +307,7 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45420</v>
+            <v>45768</v>
           </cell>
           <cell r="D23" t="str">
             <v xml:space="preserve">The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
@@ -313,7 +315,7 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45421</v>
+            <v>45769</v>
           </cell>
           <cell r="D24" t="str">
             <v>Montecarlo methods. Computing Pi with Montecarlo method</v>
@@ -321,7 +323,7 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45422</v>
+            <v>45770</v>
           </cell>
           <cell r="D25" t="str">
             <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
@@ -329,7 +331,7 @@
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45427</v>
+            <v>45775</v>
           </cell>
           <cell r="D26" t="str">
             <v xml:space="preserve">Plotting data. </v>
@@ -337,7 +339,7 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45428</v>
+            <v>45776</v>
           </cell>
           <cell r="D27" t="str">
             <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
@@ -345,7 +347,7 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45429</v>
+            <v>45777</v>
           </cell>
           <cell r="D28" t="str">
             <v>Numerical methods - continued</v>
@@ -353,7 +355,7 @@
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45433</v>
+            <v>45782</v>
           </cell>
           <cell r="D29" t="str">
             <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
@@ -361,7 +363,7 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45434</v>
+            <v>45783</v>
           </cell>
           <cell r="D30" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
@@ -369,7 +371,7 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45435</v>
+            <v>45784</v>
           </cell>
           <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
@@ -383,9 +385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,7 +425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -529,7 +531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -671,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,11 +683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.1640625" style="2" customWidth="1"/>
@@ -701,168 +703,168 @@
         <v>Topics</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f>[1]Foglio1!A2</f>
-        <v>45334</v>
+        <v>45698</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>[1]Foglio1!D2</f>
         <v xml:space="preserve">General description of the course, assessment method. 
 Defining IT, a short history.
-HCI, the desktop metaphor. Networking: lan, wan, network types, dns, url. </v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+Networking: lan, wan, network types, dns, url. </v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <f>[1]Foglio1!A3</f>
-        <v>45335</v>
+        <v>45699</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>[1]Foglio1!D3</f>
-        <v>The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
-R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
-Logical operators and De Morgan laws.</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <f>[1]Foglio1!A4</f>
-        <v>45337</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>[1]Foglio1!D4</f>
-        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <f>[1]Foglio1!A5</f>
-        <v>45341</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>[1]Foglio1!D5</f>
         <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
 Memories. Input/output devices. CPU types.
 Operating system. Bootstrap process. Multitasking. </v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <f>[1]Foglio1!A4</f>
+        <v>45700</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>[1]Foglio1!D4</f>
+        <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
+R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
+Logical operators and De Morgan laws.
+Changing the type of an expression. Console input and output. Input from file. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <f>[1]Foglio1!A5</f>
+        <v>45705</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>[1]Foglio1!D5</f>
+        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f>[1]Foglio1!A6</f>
-        <v>45342</v>
+        <v>45706</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>[1]Foglio1!D6</f>
         <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <f>[1]Foglio1!A7</f>
-        <v>45344</v>
+        <v>45707</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>[1]Foglio1!D7</f>
-        <v>Input and output in R.
-Writing loops. For and while constructs. 
+        <v>Writing loops. For and while constructs. 
 Compound interest in R. Integer division in R</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <f>[1]Foglio1!A8</f>
-        <v>45348</v>
+        <v>45712</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>[1]Foglio1!D8</f>
-        <v xml:space="preserve">Changing the type of an expression. Console input and output. Input from file. Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f>[1]Foglio1!A9</f>
-        <v>45349</v>
+        <v>45713</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>[1]Foglio1!D9</f>
         <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f>[1]Foglio1!A10</f>
-        <v>45351</v>
+        <v>45714</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>[1]Foglio1!D10</f>
         <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f>[1]Foglio1!A11</f>
-        <v>45355</v>
+        <v>45719</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>[1]Foglio1!D11</f>
         <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <f>[1]Foglio1!A12</f>
-        <v>45356</v>
+        <v>45720</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>[1]Foglio1!D12</f>
         <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f>[1]Foglio1!A13</f>
-        <v>45358</v>
+        <v>45721</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>[1]Foglio1!D13</f>
         <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <f>[1]Foglio1!A14</f>
-        <v>45362</v>
+        <v>45726</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>[1]Foglio1!D14</f>
         <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <f>[1]Foglio1!A15</f>
-        <v>45363</v>
+        <v>45727</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>[1]Foglio1!D15</f>
         <v>Accessing and reshaping a data frame.</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <f>[1]Foglio1!A16</f>
-        <v>45365</v>
+        <v>45728</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>[1]Foglio1!D16</f>
         <v>Review of first part</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f>[1]Foglio1!A17</f>
-        <v>45399</v>
+        <v>45754</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>[1]Foglio1!D17</f>
@@ -870,140 +872,140 @@
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f>[1]Foglio1!A18</f>
-        <v>45400</v>
+        <v>45755</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>[1]Foglio1!D18</f>
         <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f>[1]Foglio1!A19</f>
-        <v>45401</v>
+        <v>45756</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>[1]Foglio1!D19</f>
         <v>Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f>[1]Foglio1!A20</f>
-        <v>45406</v>
+        <v>45761</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>[1]Foglio1!D20</f>
         <v>String manipulation with R. Regular expressions for string manipulation</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
-        <v>45414</v>
+        <v>45762</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>[1]Foglio1!D21</f>
         <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
-        <v>45415</v>
+        <v>45763</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
         <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
-        <v>45420</v>
+        <v>45768</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>[1]Foglio1!D23</f>
         <v xml:space="preserve">The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f>[1]Foglio1!A24</f>
-        <v>45421</v>
+        <v>45769</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]Foglio1!D24</f>
         <v>Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
-        <v>45422</v>
+        <v>45770</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
         <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
-        <v>45427</v>
+        <v>45775</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
         <v xml:space="preserve">Plotting data. </v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
-        <v>45428</v>
+        <v>45776</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
         <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
-        <v>45429</v>
+        <v>45777</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
         <v>Numerical methods - continued</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45433</v>
+        <v>45782</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
         <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45434</v>
+        <v>45783</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>45435</v>
+        <v>45784</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>[1]Foglio1!D31</f>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EF337B-03FF-3B4F-A60E-B766760FEA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503AED09-85E5-2344-B05A-6AF44BB555B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="600" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -112,7 +110,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Foglio1"/>
@@ -385,9 +383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -425,7 +423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -531,7 +529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503AED09-85E5-2344-B05A-6AF44BB555B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6CAB87-E795-F548-B938-BDCFB9489778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="600" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -110,11 +110,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Foglio1"/>
-      <sheetName val="registroInformatics_2024_2025"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -195,7 +197,7 @@
             <v>45713</v>
           </cell>
           <cell r="D9" t="str">
-            <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
+            <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Programming repetitions with the repeat construct. </v>
           </cell>
         </row>
         <row r="10">
@@ -219,7 +221,7 @@
             <v>45720</v>
           </cell>
           <cell r="D12" t="str">
-            <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
+            <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. </v>
           </cell>
         </row>
         <row r="13">
@@ -227,7 +229,7 @@
             <v>45721</v>
           </cell>
           <cell r="D13" t="str">
-            <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
+            <v xml:space="preserve">Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
           </cell>
         </row>
         <row r="14">
@@ -235,7 +237,8 @@
             <v>45726</v>
           </cell>
           <cell r="D14" t="str">
-            <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
+            <v xml:space="preserve">Gini Concentration Index.
+Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
           </cell>
         </row>
         <row r="15">
@@ -256,7 +259,7 @@
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45754</v>
+            <v>45755</v>
           </cell>
           <cell r="D17" t="str">
             <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
@@ -265,7 +268,7 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45755</v>
+            <v>45756</v>
           </cell>
           <cell r="D18" t="str">
             <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
@@ -273,63 +276,63 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45756</v>
+            <v>45757</v>
           </cell>
           <cell r="D19" t="str">
-            <v>Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. </v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45761</v>
+            <v>45762</v>
           </cell>
           <cell r="D20" t="str">
-            <v>String manipulation with R. Regular expressions for string manipulation</v>
+            <v xml:space="preserve">Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. </v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45762</v>
+            <v>45763</v>
           </cell>
           <cell r="D21" t="str">
-            <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
+            <v>The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem.</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45763</v>
+            <v>45770</v>
           </cell>
           <cell r="D22" t="str">
-            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+            <v>Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. Regular expressions for string manipulation.</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45768</v>
+            <v>45771</v>
           </cell>
           <cell r="D23" t="str">
-            <v xml:space="preserve">The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
+            <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45769</v>
+            <v>45776</v>
           </cell>
           <cell r="D24" t="str">
-            <v>Montecarlo methods. Computing Pi with Montecarlo method</v>
+            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45770</v>
+            <v>45777</v>
           </cell>
           <cell r="D25" t="str">
-            <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
+            <v>The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45775</v>
+            <v>45783</v>
           </cell>
           <cell r="D26" t="str">
             <v xml:space="preserve">Plotting data. </v>
@@ -337,7 +340,7 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45776</v>
+            <v>45784</v>
           </cell>
           <cell r="D27" t="str">
             <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
@@ -345,7 +348,7 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45777</v>
+            <v>45785</v>
           </cell>
           <cell r="D28" t="str">
             <v>Numerical methods - continued</v>
@@ -353,7 +356,7 @@
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45782</v>
+            <v>45790</v>
           </cell>
           <cell r="D29" t="str">
             <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
@@ -361,7 +364,7 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45783</v>
+            <v>45791</v>
           </cell>
           <cell r="D30" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
@@ -369,23 +372,22 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45784</v>
+            <v>45792</v>
           </cell>
           <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,7 +425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -529,7 +531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -671,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,7 +788,7 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>[1]Foglio1!D9</f>
-        <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. </v>
+        <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Programming repetitions with the repeat construct. </v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -816,7 +818,7 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>[1]Foglio1!D12</f>
-        <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Programming repetitions with the repeat construct. Program testing. </v>
+        <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. </v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -826,7 +828,7 @@
       </c>
       <c r="B13" s="2" t="str">
         <f>[1]Foglio1!D13</f>
-        <v xml:space="preserve">Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
+        <v xml:space="preserve">Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -836,7 +838,8 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>[1]Foglio1!D14</f>
-        <v xml:space="preserve">Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
+        <v xml:space="preserve">Gini Concentration Index.
+Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -862,7 +865,7 @@
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <f>[1]Foglio1!A17</f>
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>[1]Foglio1!D17</f>
@@ -873,7 +876,7 @@
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <f>[1]Foglio1!A18</f>
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>[1]Foglio1!D18</f>
@@ -883,77 +886,77 @@
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <f>[1]Foglio1!A19</f>
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>[1]Foglio1!D19</f>
-        <v>Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. Searching a sorted list: the binary search. Binary search. Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem. The Traveling Salesman Problem</v>
+        <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. </v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <f>[1]Foglio1!A20</f>
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>[1]Foglio1!D20</f>
-        <v>String manipulation with R. Regular expressions for string manipulation</v>
+        <v xml:space="preserve">Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. </v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>[1]Foglio1!D21</f>
-        <v xml:space="preserve">Example of summarisation of a data frame according to a categorical column. </v>
+        <v>The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem.</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
-        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+        <v>Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. Regular expressions for string manipulation.</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>[1]Foglio1!D23</f>
-        <v xml:space="preserve">The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
+        <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <f>[1]Foglio1!A24</f>
-        <v>45769</v>
+        <v>45776</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]Foglio1!D24</f>
-        <v>Montecarlo methods. Computing Pi with Montecarlo method</v>
+        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
-        <v>45770</v>
+        <v>45777</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
-        <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
+        <v>The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
-        <v>45775</v>
+        <v>45783</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
@@ -963,7 +966,7 @@
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
-        <v>45776</v>
+        <v>45784</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
@@ -973,7 +976,7 @@
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
-        <v>45777</v>
+        <v>45785</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
@@ -983,7 +986,7 @@
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45782</v>
+        <v>45790</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
@@ -993,7 +996,7 @@
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45783</v>
+        <v>45791</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
@@ -1003,7 +1006,7 @@
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>45784</v>
+        <v>45792</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>[1]Foglio1!D31</f>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6CAB87-E795-F548-B938-BDCFB9489778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50445461-A306-C14A-BA8E-30E3A54377F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="600" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50445461-A306-C14A-BA8E-30E3A54377F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5910B3B-C55C-3F41-AB62-D3F99940EAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="600" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -303,7 +303,7 @@
             <v>45770</v>
           </cell>
           <cell r="D22" t="str">
-            <v>Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. Regular expressions for string manipulation.</v>
+            <v xml:space="preserve">Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. </v>
           </cell>
         </row>
         <row r="23">
@@ -319,52 +319,52 @@
             <v>45776</v>
           </cell>
           <cell r="D24" t="str">
-            <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+            <v>Strings and string functions. Regular expressions for string manipulation. The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method.</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45777</v>
+            <v>45783</v>
           </cell>
           <cell r="D25" t="str">
-            <v>The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+            <v xml:space="preserve">Plotting data. </v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45783</v>
+            <v>45784</v>
           </cell>
           <cell r="D26" t="str">
-            <v xml:space="preserve">Plotting data. </v>
+            <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45784</v>
+            <v>45786</v>
           </cell>
           <cell r="D27" t="str">
-            <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+            <v>Numerical methods - continued</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45785</v>
+            <v>45790</v>
           </cell>
           <cell r="D28" t="str">
-            <v>Numerical methods - continued</v>
+            <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45790</v>
+            <v>45791</v>
           </cell>
           <cell r="D29" t="str">
-            <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
+            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45791</v>
+            <v>45792</v>
           </cell>
           <cell r="D30" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
@@ -372,7 +372,7 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45792</v>
+            <v>45796</v>
           </cell>
           <cell r="D31" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -903,7 +903,7 @@
         <v xml:space="preserve">Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. </v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <f>[1]Foglio1!A21</f>
         <v>45763</v>
@@ -913,17 +913,17 @@
         <v>The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem.</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <f>[1]Foglio1!A22</f>
         <v>45770</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>[1]Foglio1!D22</f>
-        <v>Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. Regular expressions for string manipulation.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. </v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <f>[1]Foglio1!A23</f>
         <v>45771</v>
@@ -940,63 +940,63 @@
       </c>
       <c r="B24" s="2" t="str">
         <f>[1]Foglio1!D24</f>
-        <v>The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed.</v>
+        <v>Strings and string functions. Regular expressions for string manipulation. The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method.</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <f>[1]Foglio1!A25</f>
-        <v>45777</v>
+        <v>45783</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>[1]Foglio1!D25</f>
-        <v>The principles of pseudo-Random number generation. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method</v>
+        <v xml:space="preserve">Plotting data. </v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <f>[1]Foglio1!A26</f>
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>[1]Foglio1!D26</f>
-        <v xml:space="preserve">Plotting data. </v>
+        <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <f>[1]Foglio1!A27</f>
-        <v>45784</v>
+        <v>45786</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>[1]Foglio1!D27</f>
-        <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+        <v>Numerical methods - continued</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <f>[1]Foglio1!A28</f>
-        <v>45785</v>
+        <v>45790</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>[1]Foglio1!D28</f>
-        <v>Numerical methods - continued</v>
+        <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <f>[1]Foglio1!A29</f>
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>[1]Foglio1!D29</f>
-        <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
+        <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <f>[1]Foglio1!A30</f>
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>[1]Foglio1!D30</f>
@@ -1006,7 +1006,7 @@
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <f>[1]Foglio1!A31</f>
-        <v>45792</v>
+        <v>45796</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>[1]Foglio1!D31</f>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10203"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5910B3B-C55C-3F41-AB62-D3F99940EAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A5D78B-67EA-7549-B6C7-40FA03556393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="600" windowWidth="27240" windowHeight="16440" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
+    <workbookView xWindow="1560" yWindow="600" windowWidth="32960" windowHeight="21960" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -78,11 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -117,22 +114,24 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Foglio1"/>
+      <sheetName val="Foglio2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Date</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="B1" t="str">
             <v>Topics</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2">
-            <v>45698</v>
-          </cell>
-          <cell r="D2" t="str">
+            <v>46062</v>
+          </cell>
+          <cell r="B2" t="str">
             <v xml:space="preserve">General description of the course, assessment method. 
 Defining IT, a short history.
 Networking: lan, wan, network types, dns, url. </v>
@@ -140,9 +139,9 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>45699</v>
-          </cell>
-          <cell r="D3" t="str">
+            <v>46063</v>
+          </cell>
+          <cell r="B3" t="str">
             <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
 Memories. Input/output devices. CPU types.
 Operating system. Bootstrap process. Multitasking. </v>
@@ -150,231 +149,240 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>45700</v>
-          </cell>
-          <cell r="D4" t="str">
+            <v>46064</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>46069</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>46070</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Writing loops. For and while constructs. 
+Compound interest in R. Integer division in R</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>46071</v>
+          </cell>
+          <cell r="B7" t="str">
             <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
 Logical operators and De Morgan laws.
 Changing the type of an expression. Console input and output. Input from file. </v>
           </cell>
         </row>
-        <row r="5">
-          <cell r="A5">
-            <v>45705</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>45706</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>45707</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Writing loops. For and while constructs. 
-Compound interest in R. Integer division in R</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="A8">
-            <v>45712</v>
-          </cell>
-          <cell r="D8" t="str">
+            <v>46076</v>
+          </cell>
+          <cell r="B8" t="str">
             <v xml:space="preserve">Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>45713</v>
-          </cell>
-          <cell r="D9" t="str">
+            <v>46077</v>
+          </cell>
+          <cell r="B9" t="str">
             <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Programming repetitions with the repeat construct. </v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>45714</v>
-          </cell>
-          <cell r="D10" t="str">
+            <v>46078</v>
+          </cell>
+          <cell r="B10" t="str">
             <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>45719</v>
-          </cell>
-          <cell r="D11" t="str">
+            <v>46083</v>
+          </cell>
+          <cell r="B11" t="str">
             <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>45720</v>
-          </cell>
-          <cell r="D12" t="str">
+            <v>46084</v>
+          </cell>
+          <cell r="B12" t="str">
             <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. </v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>45721</v>
-          </cell>
-          <cell r="D13" t="str">
+            <v>46085</v>
+          </cell>
+          <cell r="B13" t="str">
             <v xml:space="preserve">Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45726</v>
-          </cell>
-          <cell r="D14" t="str">
+            <v>46090</v>
+          </cell>
+          <cell r="B14" t="str">
             <v xml:space="preserve">Gini Concentration Index.
 Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45727</v>
-          </cell>
-          <cell r="D15" t="str">
+            <v>46091</v>
+          </cell>
+          <cell r="B15" t="str">
             <v>Accessing and reshaping a data frame.</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45728</v>
-          </cell>
-          <cell r="D16" t="str">
+            <v>46092</v>
+          </cell>
+          <cell r="B16" t="str">
             <v>Review of first part</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45755</v>
-          </cell>
-          <cell r="D17" t="str">
+            <v>46100</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Lab 5 - Counting frequencies of modalities from csv</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>46125</v>
+          </cell>
+          <cell r="B18" t="str">
             <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
           </cell>
         </row>
-        <row r="18">
-          <cell r="A18">
-            <v>45756</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
-          </cell>
-        </row>
         <row r="19">
           <cell r="A19">
-            <v>45757</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. </v>
+            <v>46126</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45762</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v xml:space="preserve">Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. </v>
+            <v>46127</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. </v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45763</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem.</v>
+            <v>46132</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v xml:space="preserve">Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. </v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45770</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v xml:space="preserve">Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. </v>
+            <v>46133</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem.</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45771</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
+            <v>46134</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v xml:space="preserve">Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. </v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45776</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Strings and string functions. Regular expressions for string manipulation. The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method.</v>
+            <v>46139</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45783</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v xml:space="preserve">Plotting data. </v>
+            <v>46140</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v xml:space="preserve">Strings and string functions. Regular expressions for string manipulation.
+Plotting data.  </v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45784</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+            <v>46141</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v xml:space="preserve">The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45786</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>Numerical methods - continued</v>
+            <v>46146</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v xml:space="preserve">Montecarlo methods. Computing Pi with Montecarlo method. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45790</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
+            <v>46147</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Numerical methods - continued</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45791</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
+            <v>46148</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45792</v>
-          </cell>
-          <cell r="D30" t="str">
+            <v>46153</v>
+          </cell>
+          <cell r="B30" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45796</v>
-          </cell>
-          <cell r="D31" t="str">
+            <v>46154</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>46155</v>
+          </cell>
+          <cell r="B32" t="str">
             <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
           </cell>
         </row>
@@ -681,335 +689,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F640DB1-D1BA-604D-B1C7-6E7D4447D468}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="str">
-        <f>[1]Foglio1!A1</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="str">
+        <f>[1]Foglio2!A1</f>
         <v>Date</v>
       </c>
-      <c r="B1" s="1" t="str">
-        <f>[1]Foglio1!D1</f>
+      <c r="B1" s="2" t="str">
+        <f>[1]Foglio2!B1</f>
         <v>Topics</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <f>[1]Foglio1!A2</f>
-        <v>45698</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <f>[1]Foglio2!A2</f>
+        <v>46062</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>[1]Foglio1!D2</f>
+        <f>[1]Foglio2!B2</f>
         <v xml:space="preserve">General description of the course, assessment method. 
 Defining IT, a short history.
 Networking: lan, wan, network types, dns, url. </v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <f>[1]Foglio1!A3</f>
-        <v>45699</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f>[1]Foglio2!A3</f>
+        <v>46063</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>[1]Foglio1!D3</f>
+        <f>[1]Foglio2!B3</f>
         <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
 Memories. Input/output devices. CPU types.
 Operating system. Bootstrap process. Multitasking. </v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <f>[1]Foglio1!A4</f>
-        <v>45700</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f>[1]Foglio2!A4</f>
+        <v>46064</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>[1]Foglio1!D4</f>
+        <f>[1]Foglio2!B4</f>
+        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f>[1]Foglio2!A5</f>
+        <v>46069</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>[1]Foglio2!B5</f>
+        <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f>[1]Foglio2!A6</f>
+        <v>46070</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>[1]Foglio2!B6</f>
+        <v>Writing loops. For and while constructs. 
+Compound interest in R. Integer division in R</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f>[1]Foglio2!A7</f>
+        <v>46071</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>[1]Foglio2!B7</f>
         <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
 Logical operators and De Morgan laws.
 Changing the type of an expression. Console input and output. Input from file. </v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <f>[1]Foglio1!A5</f>
-        <v>45705</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>[1]Foglio1!D5</f>
-        <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <f>[1]Foglio1!A6</f>
-        <v>45706</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>[1]Foglio1!D6</f>
-        <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <f>[1]Foglio1!A7</f>
-        <v>45707</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>[1]Foglio1!D7</f>
-        <v>Writing loops. For and while constructs. 
-Compound interest in R. Integer division in R</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <f>[1]Foglio1!A8</f>
-        <v>45712</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f>[1]Foglio2!A8</f>
+        <v>46076</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>[1]Foglio1!D8</f>
+        <f>[1]Foglio2!B8</f>
         <v xml:space="preserve">Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <f>[1]Foglio1!A9</f>
-        <v>45713</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f>[1]Foglio2!A9</f>
+        <v>46077</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>[1]Foglio1!D9</f>
+        <f>[1]Foglio2!B9</f>
         <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Programming repetitions with the repeat construct. </v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <f>[1]Foglio1!A10</f>
-        <v>45714</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f>[1]Foglio2!A10</f>
+        <v>46078</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>[1]Foglio1!D10</f>
+        <f>[1]Foglio2!B10</f>
         <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <f>[1]Foglio1!A11</f>
-        <v>45719</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f>[1]Foglio2!A11</f>
+        <v>46083</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>[1]Foglio1!D11</f>
+        <f>[1]Foglio2!B11</f>
         <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <f>[1]Foglio1!A12</f>
-        <v>45720</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f>[1]Foglio2!A12</f>
+        <v>46084</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>[1]Foglio1!D12</f>
+        <f>[1]Foglio2!B12</f>
         <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. </v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <f>[1]Foglio1!A13</f>
-        <v>45721</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f>[1]Foglio2!A13</f>
+        <v>46085</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>[1]Foglio1!D13</f>
+        <f>[1]Foglio2!B13</f>
         <v xml:space="preserve">Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <f>[1]Foglio1!A14</f>
-        <v>45726</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f>[1]Foglio2!A14</f>
+        <v>46090</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>[1]Foglio1!D14</f>
+        <f>[1]Foglio2!B14</f>
         <v xml:space="preserve">Gini Concentration Index.
 Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <f>[1]Foglio1!A15</f>
-        <v>45727</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f>[1]Foglio2!A15</f>
+        <v>46091</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>[1]Foglio1!D15</f>
+        <f>[1]Foglio2!B15</f>
         <v>Accessing and reshaping a data frame.</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <f>[1]Foglio1!A16</f>
-        <v>45728</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f>[1]Foglio2!A16</f>
+        <v>46092</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>[1]Foglio1!D16</f>
+        <f>[1]Foglio2!B16</f>
         <v>Review of first part</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <f>[1]Foglio1!A17</f>
-        <v>45755</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f>[1]Foglio2!A17</f>
+        <v>46100</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>[1]Foglio1!D17</f>
+        <f>[1]Foglio2!B17</f>
+        <v>Lab 5 - Counting frequencies of modalities from csv</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f>[1]Foglio2!A18</f>
+        <v>46125</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>[1]Foglio2!B18</f>
         <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <f>[1]Foglio1!A18</f>
-        <v>45756</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>[1]Foglio1!D18</f>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f>[1]Foglio2!A19</f>
+        <v>46126</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>[1]Foglio2!B19</f>
         <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <f>[1]Foglio1!A19</f>
-        <v>45757</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>[1]Foglio1!D19</f>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f>[1]Foglio2!A20</f>
+        <v>46127</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>[1]Foglio2!B20</f>
         <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. </v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <f>[1]Foglio1!A20</f>
-        <v>45762</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>[1]Foglio1!D20</f>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <f>[1]Foglio2!A21</f>
+        <v>46132</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>[1]Foglio2!B21</f>
         <v xml:space="preserve">Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. </v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <f>[1]Foglio1!A21</f>
-        <v>45763</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>[1]Foglio1!D21</f>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <f>[1]Foglio2!A22</f>
+        <v>46133</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>[1]Foglio2!B22</f>
         <v>The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem.</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <f>[1]Foglio1!A22</f>
-        <v>45770</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>[1]Foglio1!D22</f>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <f>[1]Foglio2!A23</f>
+        <v>46134</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>[1]Foglio2!B23</f>
         <v xml:space="preserve">Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <f>[1]Foglio1!A23</f>
-        <v>45771</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>[1]Foglio1!D23</f>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <f>[1]Foglio2!A24</f>
+        <v>46139</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>[1]Foglio2!B24</f>
         <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <f>[1]Foglio1!A24</f>
-        <v>45776</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>[1]Foglio1!D24</f>
-        <v>Strings and string functions. Regular expressions for string manipulation. The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. Montecarlo methods. Computing Pi with Montecarlo method.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <f>[1]Foglio1!A25</f>
-        <v>45783</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <f>[1]Foglio2!A25</f>
+        <v>46140</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>[1]Foglio1!D25</f>
-        <v xml:space="preserve">Plotting data. </v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <f>[1]Foglio1!A26</f>
-        <v>45784</v>
+        <f>[1]Foglio2!B25</f>
+        <v xml:space="preserve">Strings and string functions. Regular expressions for string manipulation.
+Plotting data.  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <f>[1]Foglio2!A26</f>
+        <v>46141</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>[1]Foglio1!D26</f>
-        <v xml:space="preserve">Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <f>[1]Foglio1!A27</f>
-        <v>45786</v>
+        <f>[1]Foglio2!B26</f>
+        <v xml:space="preserve">The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <f>[1]Foglio2!A27</f>
+        <v>46146</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>[1]Foglio1!D27</f>
+        <f>[1]Foglio2!B27</f>
+        <v xml:space="preserve">Montecarlo methods. Computing Pi with Montecarlo method. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <f>[1]Foglio2!A28</f>
+        <v>46147</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>[1]Foglio2!B28</f>
         <v>Numerical methods - continued</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <f>[1]Foglio1!A28</f>
-        <v>45790</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f>[1]Foglio1!D28</f>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <f>[1]Foglio2!A29</f>
+        <v>46148</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>[1]Foglio2!B29</f>
         <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <f>[1]Foglio1!A29</f>
-        <v>45791</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f>[1]Foglio1!D29</f>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <f>[1]Foglio2!A30</f>
+        <v>46153</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>[1]Foglio2!B30</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <f>[1]Foglio1!A30</f>
-        <v>45792</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <f>[1]Foglio1!D30</f>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <f>[1]Foglio2!A31</f>
+        <v>46154</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f>[1]Foglio2!B31</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <f>[1]Foglio1!A31</f>
-        <v>45796</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f>[1]Foglio1!D31</f>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <f>[1]Foglio2!A32</f>
+        <v>46155</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>[1]Foglio2!B32</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>

--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csartori/GitHub/Informatics-Stats-and-Maths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A5D78B-67EA-7549-B6C7-40FA03556393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B9F0A-E430-F741-879A-9679987443B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="600" windowWidth="32960" windowHeight="21960" xr2:uid="{FF500EC8-34E6-D84A-8C22-9C1910F4A916}"/>
   </bookViews>
@@ -78,16 +78,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,86 +695,86 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B32"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="str">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
         <f>[1]Foglio2!A1</f>
         <v>Date</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="3" t="str">
         <f>[1]Foglio2!B1</f>
         <v>Topics</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <f>[1]Foglio2!A2</f>
         <v>46062</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="3" t="str">
         <f>[1]Foglio2!B2</f>
         <v xml:space="preserve">General description of the course, assessment method. 
 Defining IT, a short history.
 Networking: lan, wan, network types, dns, url. </v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <f>[1]Foglio2!A3</f>
         <v>46063</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="3" t="str">
         <f>[1]Foglio2!B3</f>
         <v xml:space="preserve">Computer Operation principles. Software and software layers. Instruction execution engine: the fetch/execute cycle and the clock. Architecture of a computer: the Von Neuman model. 
 Memories. Input/output devices. CPU types.
 Operating system. Bootstrap process. Multitasking. </v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <f>[1]Foglio2!A4</f>
         <v>46064</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="3" t="str">
         <f>[1]Foglio2!B4</f>
         <v xml:space="preserve">Digital representation of information. Numbers, characters. Integer and non-integer numbers: the binary representation; the mantissa/exponent representation and the floating point. Differences between real numbers and floating point: precision and approximation, arithmetic properties. </v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <f>[1]Foglio2!A5</f>
         <v>46069</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="3" t="str">
         <f>[1]Foglio2!B5</f>
         <v>Algorithmic thinking: the five properties of an algorithm. Programming languages and life cycle of a program. Examples of algorithms: the example of compound interest.</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <f>[1]Foglio2!A6</f>
         <v>46070</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="3" t="str">
         <f>[1]Foglio2!B6</f>
         <v>Writing loops. For and while constructs. 
 Compound interest in R. Integer division in R</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <f>[1]Foglio2!A7</f>
         <v>46071</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
         <f>[1]Foglio2!B7</f>
         <v xml:space="preserve">The Interactive Development Environment RStudio. Creating, editing and running an R program. Usage of the working windows, help system. Examples. 
 R - interactive and batch usage. The R  System Environment and the memory. Expressions and assignments. Operand Types. Operator types and priorities. Examples of expressions.
@@ -779,255 +782,255 @@
 Changing the type of an expression. Console input and output. Input from file. </v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <f>[1]Foglio2!A8</f>
         <v>46076</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="3" t="str">
         <f>[1]Foglio2!B8</f>
         <v xml:space="preserve">Repetition with for, sequences. Translation of the example of the compound interest into an R program. Discussion on the valid input ranges. Repetition based on condition. </v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <f>[1]Foglio2!A9</f>
         <v>46077</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
         <f>[1]Foglio2!B9</f>
         <v xml:space="preserve">Example of exponential with McLaurin Formula. Conditional instructions. Nested conditional instructions, usage of braces. Sequences of instructions and blocks. Programming repetitions with the repeat construct. </v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <f>[1]Foglio2!A10</f>
         <v>46078</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="3" t="str">
         <f>[1]Foglio2!B10</f>
         <v>Examples of translation of algorithms in R: the computation of the exponential with the MacLaurin series. Conditional execution: the if construct. Chain of conditionals. From algorithm to R program</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <f>[1]Foglio2!A11</f>
         <v>46083</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
         <f>[1]Foglio2!B11</f>
         <v xml:space="preserve">Vectors and computations with vectors. Storing values in vectors, using values of vector elements. Looking for a value in a vector. More on vector index expression, selection of vector elements based on condition. </v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <f>[1]Foglio2!A12</f>
         <v>46084</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="3" t="str">
         <f>[1]Foglio2!B12</f>
         <v xml:space="preserve">Abstractions and functions. Function version of the MacLaurin example. </v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <f>[1]Foglio2!A13</f>
         <v>46085</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="3" t="str">
         <f>[1]Foglio2!B13</f>
         <v xml:space="preserve">Lists: creation and usage. Example of function returning a list. Exercise: the Gini concentration index. Matrices in R. Examples. Example of matrix multiplication.  Arrays. Vectors, matrices, arrays: equivalence with mathematical objects. Examples with vectors and matrices.  Implementing set operations on sets represented as vectors: subset test, unique, union, intersection, difference. </v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <f>[1]Foglio2!A14</f>
         <v>46090</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="3" t="str">
         <f>[1]Foglio2!B14</f>
         <v xml:space="preserve">Gini Concentration Index.
 Data frames and motivations for their usage. Creating and using data frames. Input from file and data frame creation. Scan and read.csv. </v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <f>[1]Foglio2!A15</f>
         <v>46091</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="3" t="str">
         <f>[1]Foglio2!B15</f>
         <v>Accessing and reshaping a data frame.</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <f>[1]Foglio2!A16</f>
         <v>46092</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="3" t="str">
         <f>[1]Foglio2!B16</f>
         <v>Review of first part</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <f>[1]Foglio2!A17</f>
         <v>46100</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="3" t="str">
         <f>[1]Foglio2!B17</f>
         <v>Lab 5 - Counting frequencies of modalities from csv</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <f>[1]Foglio2!A18</f>
         <v>46125</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="3" t="str">
         <f>[1]Foglio2!B18</f>
         <v xml:space="preserve">Algorithms: sort. From algorithm to the R program. The bubble sort algorithm. 
 Recursive functions. Recursive vs iterative. Examples: Factorial, Fibonacci, Merge_Sort implementation and intuition on computational complexity. </v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <f>[1]Foglio2!A19</f>
         <v>46126</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="3" t="str">
         <f>[1]Foglio2!B19</f>
         <v>Determinant of square matrix with Laplace formula. Examples with the matrix algebra. The echelon form: checking the condition. The elementary row operations. Echelon reduction</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <f>[1]Foglio2!A20</f>
         <v>46127</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="3" t="str">
         <f>[1]Foglio2!B20</f>
         <v xml:space="preserve">Computing the determinant of a square matrix: the Laplace formula vs the echelon reduction: intuition on comparison of the computational complexities. </v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <f>[1]Foglio2!A21</f>
         <v>46132</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="3" t="str">
         <f>[1]Foglio2!B21</f>
         <v xml:space="preserve">Introduction to computational complexity. Comparing the effort of different procedures that obtain the same result. Time complexity. Evaluation and comparison of complexities; asymptotic complexity. </v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <f>[1]Foglio2!A22</f>
         <v>46133</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="3" t="str">
         <f>[1]Foglio2!B22</f>
         <v>The "big O" notation. Comparing linear search and binary search. Examples of general algorithms and their computational complexity. The knapsack problem.</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <f>[1]Foglio2!A23</f>
         <v>46134</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="3" t="str">
         <f>[1]Foglio2!B23</f>
         <v xml:space="preserve">Searching a sorted list: the binary search. Binary search. String manipulation with R. Example of summarisation of a data frame according to a categorical column. </v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <f>[1]Foglio2!A24</f>
         <v>46139</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="3" t="str">
         <f>[1]Foglio2!B24</f>
         <v xml:space="preserve">Vectorization in R: implicit vectorization and vectorized functions. Comparisons of efficiency. The apply family of functions for the intrinsic vectorization. Subsetting data structures in R. Types of subsetting. Types of indexing. </v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <f>[1]Foglio2!A25</f>
         <v>46140</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="3" t="str">
         <f>[1]Foglio2!B25</f>
         <v xml:space="preserve">Strings and string functions. Regular expressions for string manipulation.
 Plotting data.  </v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <f>[1]Foglio2!A26</f>
         <v>46141</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="3" t="str">
         <f>[1]Foglio2!B26</f>
         <v xml:space="preserve">The Lehmer generator. Generation of random numbers in R. Repetition of a random sequence by means of the seed. Types of generation: continuous uniform, discrete uniform, discrete with assigned probability. </v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <f>[1]Foglio2!A27</f>
         <v>46146</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="3" t="str">
         <f>[1]Foglio2!B27</f>
         <v xml:space="preserve">Montecarlo methods. Computing Pi with Montecarlo method. Numerical methods. Minimum of a function with the golden section. Zeroes of a function with the Newton method. Zeroes of a function with the bisection method. </v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <f>[1]Foglio2!A28</f>
         <v>46147</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="3" t="str">
         <f>[1]Foglio2!B28</f>
         <v>Numerical methods - continued</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <f>[1]Foglio2!A29</f>
         <v>46148</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="3" t="str">
         <f>[1]Foglio2!B29</f>
         <v>Longitudinal data https://www.statmethods.net/input/dates.html</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <f>[1]Foglio2!A30</f>
         <v>46153</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="3" t="str">
         <f>[1]Foglio2!B30</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <f>[1]Foglio2!A31</f>
         <v>46154</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="3" t="str">
         <f>[1]Foglio2!B31</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <f>[1]Foglio2!A32</f>
         <v>46155</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="3" t="str">
         <f>[1]Foglio2!B32</f>
         <v>Exercises on writing algorithms and translating algorithms to R: sequence analysis 1. Exercises on writing algorithms and translating algorithms to R: sequence analysis 3</v>
       </c>
